--- a/十四运主要对手清单与数据源.xlsx
+++ b/十四运主要对手清单与数据源.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaor/Project/Laboratory_project/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A3534-3D8E-CF42-B46E-1D50EB8EF70C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0355F-1BBD-6746-9847-0D0C20FF5550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>重庆市体育局备战十四运重点项目主要竞争对手情况汇总表</t>
   </si>
@@ -39,22 +39,10 @@
     <t>广东张梦雨</t>
   </si>
   <si>
-    <t>广东高林志、贵州常勇、安徽王龙</t>
-  </si>
-  <si>
     <t>古典跤</t>
   </si>
   <si>
-    <t>竞走</t>
-  </si>
-  <si>
     <t>跳远</t>
-  </si>
-  <si>
-    <t>辽宁朱亚明、广东吴睿廷、陕西方耀庆</t>
-  </si>
-  <si>
-    <t>举重</t>
   </si>
   <si>
     <t>天津吕小军</t>
@@ -171,10 +159,6 @@
   </si>
   <si>
     <t>云南山俊、新疆叶尔达吾列提·买衣兰别克+8:10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际田联：https://www.worldathletics.org/competition/calendar-results?hideCompetitionsWithNoResults=true&amp;competitionGroupId=3806&amp;disciplineId=4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -240,6 +224,53 @@
   </si>
   <si>
     <t>以下不赘述，查找不到则进行网页搜索</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际田联：https://worldathletics.org/competition/calendar-results?hideCompetitionsWithNoResults=true</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>举重</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东高林志、贵州常勇、安徽王龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞走</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>👌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>👌</t>
+  </si>
+  <si>
+    <t>主要项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60、100、200、4*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100、4*200</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁朱亚明、广东吴睿廷、陕西方耀庆</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +331,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,6 +390,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -361,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,12 +475,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,9 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,6 +506,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="124" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -780,20 +836,20 @@
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10" ht="29.5" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="55" customHeight="1">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="55" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -805,326 +861,354 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="69" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="53" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="53" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>21</v>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="62" customHeight="1">
+    </row>
+    <row r="5" spans="1:10" ht="62" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="G7" s="24"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>27</v>
+      <c r="B8" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="91" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="91" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>26</v>
+      <c r="B11" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="70" customHeight="1">
+    <row r="14" spans="1:10" ht="70" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="71" customHeight="1">
+      <c r="J14" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="71" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="73" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="73" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>10</v>
+      <c r="B17" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="34" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="34" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>43</v>
+      <c r="B19" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1">
+    </row>
+    <row r="20" spans="1:9" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>14</v>
+      <c r="B21" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1">
+    <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" ht="38" customHeight="1">
+    <row r="24" spans="1:9" ht="38" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
+  <mergeCells count="16">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="G11:G13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
